--- a/EEPROM.xlsx
+++ b/EEPROM.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prog\Github\VCMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F6920-B942-43A0-BCFC-1612ECC833CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85D336A-D6B2-4459-937E-39048C787380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7870" yWindow="3800" windowWidth="15060" windowHeight="15460" xr2:uid="{70207959-F336-4C7B-99A5-F828907A22FB}"/>
+    <workbookView xWindow="2570" yWindow="8160" windowWidth="24370" windowHeight="12590" xr2:uid="{70207959-F336-4C7B-99A5-F828907A22FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Banco</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Nuevo CVThing</t>
+  </si>
+  <si>
+    <t>Con I2C</t>
   </si>
 </sst>
 </file>
@@ -443,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FB32A5-7921-4AAC-8700-79D65AB1EF65}">
   <dimension ref="A17:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,6 +459,9 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
       <c r="F17" t="s">
         <v>18</v>
       </c>
@@ -472,6 +478,10 @@
         <f>15*7</f>
         <v>105</v>
       </c>
+      <c r="D18">
+        <f>15*7</f>
+        <v>105</v>
+      </c>
       <c r="F18">
         <f>15*7</f>
         <v>105</v>
@@ -485,8 +495,10 @@
         <v>40</v>
       </c>
       <c r="C19">
-        <f>38+5</f>
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
       </c>
       <c r="F19">
         <f>38+5</f>
@@ -511,7 +523,11 @@
       </c>
       <c r="C21">
         <f>+C19+C18+C20</f>
-        <v>148</v>
+        <v>132</v>
+      </c>
+      <c r="D21">
+        <f>+D19+D18+D20</f>
+        <v>132</v>
       </c>
       <c r="F21">
         <f>+F19+F18+F20</f>
@@ -522,6 +538,9 @@
       <c r="C22" t="s">
         <v>17</v>
       </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
@@ -536,6 +555,9 @@
       <c r="C23">
         <v>2</v>
       </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
       <c r="F23">
         <v>2</v>
       </c>
@@ -550,6 +572,9 @@
       <c r="C24">
         <v>8</v>
       </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
       <c r="F24">
         <v>8</v>
       </c>
@@ -562,7 +587,10 @@
         <v>40</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -578,6 +606,9 @@
       <c r="C26">
         <v>14</v>
       </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -592,7 +623,11 @@
       </c>
       <c r="C27">
         <f>+C26+C25+C24+C23</f>
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <f>+D26+D25+D24+D23</f>
+        <v>51</v>
       </c>
       <c r="F27">
         <f>+F26+F25+F24+F23</f>
@@ -609,6 +644,9 @@
       <c r="C28">
         <v>8</v>
       </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
       <c r="F28">
         <v>8</v>
       </c>
@@ -623,7 +661,11 @@
       </c>
       <c r="C29">
         <f>+C28*C27+C25+C25+C24</f>
-        <v>440</v>
+        <v>390</v>
+      </c>
+      <c r="D29">
+        <f>+D28*D27+D25+D25+D24</f>
+        <v>461</v>
       </c>
       <c r="F29">
         <f>+F28*F27+F25+F25+F24</f>
@@ -656,6 +698,9 @@
       <c r="C32">
         <v>2048</v>
       </c>
+      <c r="D32">
+        <v>2048</v>
+      </c>
       <c r="F32">
         <v>2048</v>
       </c>
@@ -672,6 +717,10 @@
         <f>INT((C32-C21)/C29)</f>
         <v>4</v>
       </c>
+      <c r="D33">
+        <f>INT((D32-D21)/D29)</f>
+        <v>4</v>
+      </c>
       <c r="F33">
         <f>INT((F32-F21)/F29)</f>
         <v>5</v>
@@ -687,7 +736,11 @@
       </c>
       <c r="C34">
         <f>-C33*C29-C21+C32</f>
-        <v>140</v>
+        <v>356</v>
+      </c>
+      <c r="D34">
+        <f>-D33*D29-D21+D32</f>
+        <v>72</v>
       </c>
       <c r="F34">
         <f>-F33*F29-F21+F32</f>
@@ -705,7 +758,7 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C37">
         <f>+C29+150</f>
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="F37">
         <f>+F29+150</f>

--- a/EEPROM.xlsx
+++ b/EEPROM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prog\Github\VCMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85D336A-D6B2-4459-937E-39048C787380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BF4F49-8F20-47F4-A1C5-BB088D79AD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2570" yWindow="8160" windowWidth="24370" windowHeight="12590" xr2:uid="{70207959-F336-4C7B-99A5-F828907A22FB}"/>
+    <workbookView xWindow="16050" yWindow="740" windowWidth="19350" windowHeight="18390" xr2:uid="{70207959-F336-4C7B-99A5-F828907A22FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FB32A5-7921-4AAC-8700-79D65AB1EF65}">
-  <dimension ref="A17:F37"/>
+  <dimension ref="A17:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,7 +498,7 @@
         <v>27</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19">
         <f>38+5</f>
@@ -526,8 +526,7 @@
         <v>132</v>
       </c>
       <c r="D21">
-        <f>+D19+D18+D20</f>
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F21">
         <f>+F19+F18+F20</f>
@@ -573,7 +572,7 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -587,10 +586,10 @@
         <v>40</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -607,7 +606,7 @@
         <v>14</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -623,11 +622,11 @@
       </c>
       <c r="C27">
         <f>+C26+C25+C24+C23</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27">
         <f>+D26+D25+D24+D23</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F27">
         <f>+F26+F25+F24+F23</f>
@@ -661,11 +660,11 @@
       </c>
       <c r="C29">
         <f>+C28*C27+C25+C25+C24</f>
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D29">
         <f>+D28*D27+D25+D25+D24</f>
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="F29">
         <f>+F28*F27+F25+F25+F24</f>
@@ -719,7 +718,7 @@
       </c>
       <c r="D33">
         <f>INT((D32-D21)/D29)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <f>INT((F32-F21)/F29)</f>
@@ -736,11 +735,11 @@
       </c>
       <c r="C34">
         <f>-C33*C29-C21+C32</f>
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="D34">
         <f>-D33*D29-D21+D32</f>
-        <v>72</v>
+        <v>458</v>
       </c>
       <c r="F34">
         <f>-F33*F29-F21+F32</f>
@@ -758,11 +757,17 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C37">
         <f>+C29+150</f>
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F37">
         <f>+F29+150</f>
         <v>478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <f>+D32-D34</f>
+        <v>1590</v>
       </c>
     </row>
   </sheetData>

--- a/EEPROM.xlsx
+++ b/EEPROM.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prog\Github\VCMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F6920-B942-43A0-BCFC-1612ECC833CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615C8B40-9A97-4947-95C3-684CE67609F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7870" yWindow="3800" windowWidth="15060" windowHeight="15460" xr2:uid="{70207959-F336-4C7B-99A5-F828907A22FB}"/>
+    <workbookView xWindow="1830" yWindow="670" windowWidth="36270" windowHeight="19580" xr2:uid="{70207959-F336-4C7B-99A5-F828907A22FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>Banco</t>
   </si>
@@ -90,6 +90,108 @@
   </si>
   <si>
     <t>Nuevo CVThing</t>
+  </si>
+  <si>
+    <t>Con I2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { 0, ui08TYPE, PAR_MIDIChannel},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { 1, ui08TYPE, PAR_PortName},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { 2, charTYPE, PAR_NameSufix},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { 3, ui08TYPE, PAR_DelayGate},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // Analog Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { 4, ui08TYPE, PAR_Option1},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { 5, si16TYPE, PAR_Range_minMIDI},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { 7, si16TYPE, PAR_Range_rangeMIDI},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { 9, si16TYPE, PAR_Range_minDAC},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {11, si16TYPE, PAR_Range_rangeDAC},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {13, si16TYPE, PAR_ClipLow},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {15, si16TYPE, PAR_ClipHigh},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {17, ui16TYPE, PAR_FunctionData},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {19, ui32TYPE, PAR_AnagOptionsI2C}</t>
+  </si>
+  <si>
+    <t>PAR_MIDIChannel</t>
+  </si>
+  <si>
+    <t>PAR_PortName</t>
+  </si>
+  <si>
+    <t>PAR_NameSufix</t>
+  </si>
+  <si>
+    <t>PAR_DelayGate</t>
+  </si>
+  <si>
+    <t>PAR_Option1</t>
+  </si>
+  <si>
+    <t>PAR_Range_minMIDI</t>
+  </si>
+  <si>
+    <t>PAR_Range_rangeMIDI</t>
+  </si>
+  <si>
+    <t>PAR_Range_minDAC</t>
+  </si>
+  <si>
+    <t>PAR_Range_rangeDAC</t>
+  </si>
+  <si>
+    <t>PAR_ClipLow</t>
+  </si>
+  <si>
+    <t>PAR_ClipHigh</t>
+  </si>
+  <si>
+    <t>PAR_FunctionData</t>
+  </si>
+  <si>
+    <t>ui08TYPE</t>
+  </si>
+  <si>
+    <t>charTYPE</t>
+  </si>
+  <si>
+    <t>si16TYPE</t>
+  </si>
+  <si>
+    <t>ui16TYPE</t>
+  </si>
+  <si>
+    <t>ui32TYPE</t>
+  </si>
+  <si>
+    <t>PAR_AnagOptionsI2C</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
 </sst>
 </file>
@@ -441,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FB32A5-7921-4AAC-8700-79D65AB1EF65}">
-  <dimension ref="A17:F37"/>
+  <dimension ref="A17:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,6 +558,9 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
       <c r="F17" t="s">
         <v>18</v>
       </c>
@@ -472,6 +577,10 @@
         <f>15*7</f>
         <v>105</v>
       </c>
+      <c r="D18">
+        <f>15*7</f>
+        <v>105</v>
+      </c>
       <c r="F18">
         <f>15*7</f>
         <v>105</v>
@@ -485,8 +594,10 @@
         <v>40</v>
       </c>
       <c r="C19">
-        <f>38+5</f>
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
       </c>
       <c r="F19">
         <f>38+5</f>
@@ -511,7 +622,10 @@
       </c>
       <c r="C21">
         <f>+C19+C18+C20</f>
-        <v>148</v>
+        <v>132</v>
+      </c>
+      <c r="D21">
+        <v>150</v>
       </c>
       <c r="F21">
         <f>+F19+F18+F20</f>
@@ -522,6 +636,9 @@
       <c r="C22" t="s">
         <v>17</v>
       </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
@@ -536,6 +653,9 @@
       <c r="C23">
         <v>2</v>
       </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
       <c r="F23">
         <v>2</v>
       </c>
@@ -550,6 +670,9 @@
       <c r="C24">
         <v>8</v>
       </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
       <c r="F24">
         <v>8</v>
       </c>
@@ -562,7 +685,10 @@
         <v>40</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -578,6 +704,9 @@
       <c r="C26">
         <v>14</v>
       </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -592,7 +721,11 @@
       </c>
       <c r="C27">
         <f>+C26+C25+C24+C23</f>
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <f>+D26+D25+D24+D23</f>
+        <v>53</v>
       </c>
       <c r="F27">
         <f>+F26+F25+F24+F23</f>
@@ -609,6 +742,9 @@
       <c r="C28">
         <v>8</v>
       </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
       <c r="F28">
         <v>8</v>
       </c>
@@ -623,7 +759,11 @@
       </c>
       <c r="C29">
         <f>+C28*C27+C25+C25+C24</f>
-        <v>440</v>
+        <v>400</v>
+      </c>
+      <c r="D29">
+        <f>+D28*D27+D25+D25+D24</f>
+        <v>480</v>
       </c>
       <c r="F29">
         <f>+F28*F27+F25+F25+F24</f>
@@ -656,11 +796,14 @@
       <c r="C32">
         <v>2048</v>
       </c>
+      <c r="D32">
+        <v>2048</v>
+      </c>
       <c r="F32">
         <v>2048</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -672,12 +815,16 @@
         <f>INT((C32-C21)/C29)</f>
         <v>4</v>
       </c>
+      <c r="D33">
+        <f>INT((D32-D21)/D29)</f>
+        <v>3</v>
+      </c>
       <c r="F33">
         <f>INT((F32-F21)/F29)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -687,14 +834,18 @@
       </c>
       <c r="C34">
         <f>-C33*C29-C21+C32</f>
-        <v>140</v>
+        <v>316</v>
+      </c>
+      <c r="D34">
+        <f>-D33*D29-D21+D32</f>
+        <v>458</v>
       </c>
       <c r="F34">
         <f>-F33*F29-F21+F32</f>
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -702,14 +853,258 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C37">
         <f>+C29+150</f>
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="F37">
         <f>+F29+150</f>
         <v>478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <f>+D32-D34</f>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f>+E43</f>
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f>+E44</f>
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f>+E45</f>
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f>+E48</f>
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="L49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="L50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="L52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <f>+E55</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <f>+E56</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <f>SUM(E43:E56)</f>
+        <v>23</v>
+      </c>
+      <c r="F58">
+        <f>SUM(F43:F56)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/EEPROM.xlsx
+++ b/EEPROM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prog\Github\VCMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615C8B40-9A97-4947-95C3-684CE67609F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A82D33-E401-4166-9879-D219BA76A657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="670" windowWidth="36270" windowHeight="19580" xr2:uid="{70207959-F336-4C7B-99A5-F828907A22FB}"/>
+    <workbookView xWindow="10360" yWindow="4460" windowWidth="27650" windowHeight="14050" xr2:uid="{70207959-F336-4C7B-99A5-F828907A22FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FB32A5-7921-4AAC-8700-79D65AB1EF65}">
   <dimension ref="A17:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -721,7 +721,7 @@
       </c>
       <c r="C27">
         <f>+C26+C25+C24+C23</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D27">
         <f>+D26+D25+D24+D23</f>
@@ -759,7 +759,7 @@
       </c>
       <c r="C29">
         <f>+C28*C27+C25+C25+C24</f>
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D29">
         <f>+D28*D27+D25+D25+D24</f>
@@ -834,7 +834,7 @@
       </c>
       <c r="C34">
         <f>-C33*C29-C21+C32</f>
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="D34">
         <f>-D33*D29-D21+D32</f>
@@ -856,7 +856,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C37">
         <f>+C29+150</f>
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="F37">
         <f>+F29+150</f>

--- a/EEPROM.xlsx
+++ b/EEPROM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prog\Github\VCMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A82D33-E401-4166-9879-D219BA76A657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC31FA48-4F0A-469C-8E57-4BEAD3105F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="4460" windowWidth="27650" windowHeight="14050" xr2:uid="{70207959-F336-4C7B-99A5-F828907A22FB}"/>
+    <workbookView xWindow="7080" yWindow="3540" windowWidth="27650" windowHeight="14050" xr2:uid="{70207959-F336-4C7B-99A5-F828907A22FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>Banco</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>Nuevo I2C</t>
+  </si>
+  <si>
+    <t>Libre por banco</t>
   </si>
 </sst>
 </file>
@@ -543,15 +549,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FB32A5-7921-4AAC-8700-79D65AB1EF65}">
-  <dimension ref="A17:L58"/>
+  <dimension ref="A17:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -561,11 +567,14 @@
       <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -581,12 +590,16 @@
         <f>15*7</f>
         <v>105</v>
       </c>
-      <c r="F18">
+      <c r="E18">
         <f>15*7</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <f>15*7</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -597,14 +610,17 @@
         <v>27</v>
       </c>
       <c r="D19">
-        <v>28</v>
-      </c>
-      <c r="F19">
+        <v>31</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="G19">
         <f>38+5</f>
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -612,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -625,25 +641,33 @@
         <v>132</v>
       </c>
       <c r="D21">
-        <v>150</v>
-      </c>
-      <c r="F21">
-        <f>+F19+F18+F20</f>
+        <f>+D19+D18+D20</f>
+        <v>136</v>
+      </c>
+      <c r="E21">
+        <f>+E19+E18+E20</f>
+        <v>135</v>
+      </c>
+      <c r="G21">
+        <f>+G19+G18+G20</f>
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -654,13 +678,17 @@
         <v>4</v>
       </c>
       <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <f>10-6</f>
+        <v>4</v>
+      </c>
+      <c r="G23">
         <v>2</v>
       </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -671,13 +699,17 @@
         <v>8</v>
       </c>
       <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <f>8+2</f>
         <v>10</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -688,13 +720,17 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>23</v>
-      </c>
-      <c r="F25">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <f>20+2</f>
+        <v>22</v>
+      </c>
+      <c r="G25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -705,13 +741,17 @@
         <v>14</v>
       </c>
       <c r="D26">
-        <v>18</v>
-      </c>
-      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <f>14+2</f>
+        <v>16</v>
+      </c>
+      <c r="G26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -725,14 +765,18 @@
       </c>
       <c r="D27">
         <f>+D26+D25+D24+D23</f>
-        <v>53</v>
-      </c>
-      <c r="F27">
-        <f>+F26+F25+F24+F23</f>
+        <v>49</v>
+      </c>
+      <c r="E27">
+        <f>+E26+E25+E24+E23</f>
+        <v>52</v>
+      </c>
+      <c r="G27">
+        <f>+G26+G25+G24+G23</f>
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -745,11 +789,14 @@
       <c r="D28">
         <v>8</v>
       </c>
-      <c r="F28">
+      <c r="E28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -763,30 +810,34 @@
       </c>
       <c r="D29">
         <f>+D28*D27+D25+D25+D24</f>
-        <v>480</v>
-      </c>
-      <c r="F29">
-        <f>+F28*F27+F25+F25+F24</f>
+        <v>443</v>
+      </c>
+      <c r="E29">
+        <f>+E28*E27+E25+E25+E24</f>
+        <v>470</v>
+      </c>
+      <c r="G29">
+        <f>+G28*G27+G25+G25+G24</f>
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -799,11 +850,14 @@
       <c r="D32">
         <v>2048</v>
       </c>
-      <c r="F32">
+      <c r="E32">
         <v>2048</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -817,14 +871,18 @@
       </c>
       <c r="D33">
         <f>INT((D32-D21)/D29)</f>
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <f>INT((F32-F21)/F29)</f>
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <f>INT((E32-E21)/E29)</f>
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <f>INT((G32-G21)/G29)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -838,272 +896,340 @@
       </c>
       <c r="D34">
         <f>-D33*D29-D21+D32</f>
-        <v>458</v>
-      </c>
-      <c r="F34">
-        <f>-F33*F29-F21+F32</f>
+        <v>140</v>
+      </c>
+      <c r="E34">
+        <f>-E33*E29-E21+E32</f>
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <f>-G33*G29-G21+G32</f>
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <f>+B34/B33</f>
+        <v>67</v>
+      </c>
+      <c r="C35">
+        <f>+C34/C33</f>
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <f>+D34/D33</f>
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <f>+E34/E33</f>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C37">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C38">
         <f>+C29+150</f>
         <v>566</v>
       </c>
-      <c r="F37">
-        <f>+F29+150</f>
+      <c r="G38">
+        <f>+G29+150</f>
         <v>478</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D38">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D39">
         <f>+D32-D34</f>
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L39" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E39">
+        <f>+E32-E34</f>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L40" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>7</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F42" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G43" t="s">
         <v>52</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>34</v>
-      </c>
-      <c r="D43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <f>+E43</f>
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>35</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44">
         <v>1</v>
       </c>
-      <c r="F44">
-        <f>+E44</f>
+      <c r="G44">
+        <f>+F44</f>
         <v>1</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f>+F45</f>
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>36</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>47</v>
       </c>
-      <c r="E45">
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46">
         <v>1</v>
       </c>
-      <c r="F45">
-        <f>+E45</f>
+      <c r="G46">
+        <f>+F46</f>
         <v>1</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
         <v>37</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>46</v>
       </c>
-      <c r="E46">
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47">
         <v>1</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L47" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
         <v>38</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>46</v>
       </c>
-      <c r="E48">
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49">
         <v>1</v>
       </c>
-      <c r="F48">
-        <f>+E48</f>
+      <c r="G49">
+        <f>+F49</f>
         <v>1</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
         <v>39</v>
-      </c>
-      <c r="D49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="L49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>40</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50">
         <v>2</v>
       </c>
-      <c r="L50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51">
         <v>2</v>
       </c>
-      <c r="L51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52">
         <v>2</v>
       </c>
-      <c r="L52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
         <v>45</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>49</v>
       </c>
-      <c r="E55">
+      <c r="E56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56">
         <v>2</v>
       </c>
-      <c r="F55">
-        <f>+E55</f>
+      <c r="G56">
+        <f>+F56</f>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
         <v>51</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>50</v>
       </c>
-      <c r="E56">
+      <c r="E57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57">
         <v>4</v>
       </c>
-      <c r="F56">
-        <f>+E56</f>
+      <c r="G57">
+        <f>+F57</f>
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E58">
-        <f>SUM(E43:E56)</f>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <f>SUM(F44:F57)</f>
         <v>23</v>
       </c>
-      <c r="F58">
-        <f>SUM(F43:F56)</f>
+      <c r="G59">
+        <f>SUM(G44:G57)</f>
         <v>10</v>
       </c>
     </row>
